--- a/inst/extdata/drug_dict.xlsx
+++ b/inst/extdata/drug_dict.xlsx
@@ -35,12 +35,6 @@
     <t>new</t>
   </si>
   <si>
-    <t>rx_type_hf</t>
-  </si>
-  <si>
-    <t>rx_othtype_hf</t>
-  </si>
-  <si>
     <t>odk_ref</t>
   </si>
   <si>
@@ -185,12 +179,6 @@
     <t>character</t>
   </si>
   <si>
-    <t>rx_type</t>
-  </si>
-  <si>
-    <t>rx_othtype</t>
-  </si>
-  <si>
     <t>rx_amoxicillin_hf</t>
   </si>
   <si>
@@ -348,6 +336,18 @@
   </si>
   <si>
     <t>free_text2</t>
+  </si>
+  <si>
+    <t>rx_type2</t>
+  </si>
+  <si>
+    <t>rx_othtype2</t>
+  </si>
+  <si>
+    <t>rx_type_hf2</t>
+  </si>
+  <si>
+    <t>rx_othtype_hf2</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -809,30 +809,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -851,13 +851,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -876,13 +876,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -922,13 +922,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -945,13 +945,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -968,13 +968,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -991,13 +991,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1014,13 +1014,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1037,13 +1037,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1060,13 +1060,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1083,13 +1083,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1106,13 +1106,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1152,13 +1152,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1267,13 +1267,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1290,13 +1290,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1313,13 +1313,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1336,13 +1336,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1359,13 +1359,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1405,13 +1405,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1428,13 +1428,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1474,13 +1474,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1497,13 +1497,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1566,13 +1566,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1589,13 +1589,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1612,13 +1612,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1635,13 +1635,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1658,13 +1658,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -1727,13 +1727,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -1750,13 +1750,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -1796,13 +1796,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -1811,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -1842,13 +1842,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -1865,13 +1865,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -1888,13 +1888,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -1911,13 +1911,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -1934,13 +1934,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -1957,13 +1957,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -1980,13 +1980,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2003,13 +2003,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -2018,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>

--- a/inst/extdata/drug_dict.xlsx
+++ b/inst/extdata/drug_dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -786,22 +786,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -824,7 +824,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>98</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>99</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>91</v>
       </c>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>93</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>51</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>78</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>62</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>79</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>80</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>81</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>64</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>65</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>66</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>67</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>68</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>82</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>83</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>97</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>84</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>85</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>86</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>87</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>69</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>3</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>4</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>96</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>101</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>102</v>
       </c>
@@ -2024,22 +2024,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F59" s="1"/>
     </row>
   </sheetData>

--- a/inst/extdata/drug_dict.xlsx
+++ b/inst/extdata/drug_dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="108">
   <si>
     <t>old</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>rx_othtype_hf2</t>
+  </si>
+  <si>
+    <t>antibiotics_hf</t>
   </si>
 </sst>
 </file>
@@ -787,21 +790,21 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -824,7 +827,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>98</v>
       </c>
@@ -849,7 +852,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>99</v>
       </c>
@@ -874,7 +877,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -897,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -920,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -943,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>91</v>
       </c>
@@ -966,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -989,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>93</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>51</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>78</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>62</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>79</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>80</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>81</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>64</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>65</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>66</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>67</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>68</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>82</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>83</v>
       </c>
@@ -1748,9 +1751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>95</v>
@@ -1771,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>84</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>85</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>86</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>87</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>69</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>3</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>4</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>96</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>101</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>102</v>
       </c>
@@ -2024,22 +2027,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F59" s="1"/>
     </row>
   </sheetData>

--- a/inst/extdata/drug_dict.xlsx
+++ b/inst/extdata/drug_dict.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="112">
   <si>
     <t>old</t>
   </si>
@@ -351,6 +351,18 @@
   </si>
   <si>
     <t>antibiotics_hf</t>
+  </si>
+  <si>
+    <t>SubmissionDate</t>
+  </si>
+  <si>
+    <t>submission_date</t>
+  </si>
+  <si>
+    <t>Edits</t>
+  </si>
+  <si>
+    <t>edits</t>
   </si>
 </sst>
 </file>
@@ -460,7 +472,57 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -789,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -878,14 +940,14 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
+      <c r="A4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -899,16 +961,18 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
+      <c r="A5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -922,16 +986,18 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -948,19 +1014,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -971,13 +1037,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -994,19 +1060,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>49</v>
@@ -1017,13 +1083,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1040,13 +1106,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1063,13 +1129,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1086,13 +1152,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1109,13 +1175,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1132,13 +1198,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1155,13 +1221,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1178,88 +1244,88 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>49</v>
@@ -1270,16 +1336,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1293,13 +1359,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1316,19 +1382,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>49</v>
@@ -1339,13 +1405,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1362,19 +1428,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>103</v>
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>49</v>
@@ -1385,59 +1451,59 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1454,13 +1520,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -1477,13 +1543,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1500,13 +1566,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1523,13 +1589,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1546,13 +1612,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1569,19 +1635,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>49</v>
@@ -1592,13 +1658,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1615,19 +1681,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>49</v>
@@ -1638,13 +1704,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -1661,13 +1727,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -1684,13 +1750,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -1707,13 +1773,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -1730,13 +1796,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -1753,16 +1819,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1776,19 +1842,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>49</v>
@@ -1799,16 +1865,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1822,13 +1888,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -1845,19 +1911,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>49</v>
@@ -1868,13 +1934,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1891,19 +1957,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>49</v>
@@ -1914,59 +1980,59 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B51" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -1983,13 +2049,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -2006,32 +2072,72 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F55" s="1"/>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F56" s="1"/>
@@ -2047,27 +2153,47 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G59"/>
-  <conditionalFormatting sqref="G43:G50 D2:E50 H2:I3 G2:G41">
-    <cfRule type="cellIs" dxfId="4" priority="242" operator="equal">
+  <conditionalFormatting sqref="G45:G52 G2:I3 G6:G43 D2:E4 D6:E52">
+    <cfRule type="cellIs" dxfId="9" priority="247" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+  <conditionalFormatting sqref="G44">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51 D51:E51">
+  <conditionalFormatting sqref="G53 D53:E53">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54 D54:E54">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55 D55:E55">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:I4">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:I5">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52 D52:E52">
+  <conditionalFormatting sqref="D5:E5">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G53 D53:E53">
+  <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
